--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1750298.879089353</v>
+        <v>-1753333.211166206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858984</v>
+        <v>8656875.781858983</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>385.6606999583427</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>210.5076557657081</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>71.33954444969703</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>86.85904583823142</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>120.2570633735995</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>292.5218012947493</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>6.28367916400425</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>74.53436060286474</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>22.57919878398805</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>123.9496908388069</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>139.8041854157605</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>8.885767957897231</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>271.5753933262251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>200.5864956139556</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>42.86209348694715</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1898,7 +1898,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>187.4330611973848</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>53.57325324602711</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>24.28294625218579</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>142.6796928024438</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292618</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247755</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734100478</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004746</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>80.15332431628445</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>110.9960065887296</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
@@ -2728,7 +2728,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I28" t="n">
         <v>56.98118882652582</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065884</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261726</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,10 +3721,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1546.92347107711</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1188.657772470359</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1188.657772470359</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2253.308918139948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2181.248772231163</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.248772231163</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2181.248772231163</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.109440255352</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="3">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>640.3925742688267</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>640.3925742688267</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>385.7080860629399</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>385.7080860629399</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X4" t="n">
-        <v>385.7080860629399</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y4" t="n">
-        <v>385.7080860629399</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>81.15903730168839</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>74.21353655248491</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>60.29013249107582</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>60.29013249107582</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>652.8417512742476</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>652.8417512742476</v>
+        <v>81.59249510651588</v>
       </c>
       <c r="W7" t="n">
-        <v>652.8417512742476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>424.8522003762303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>251.0851341348652</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>251.0851341348652</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>244.1396333856617</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>230.2162293242527</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2340.741205944899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2340.741205944899</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2340.741205944899</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2340.741205944899</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2340.741205944899</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>2340.741205944899</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.5654064942401</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C10" t="n">
-        <v>550.5654064942401</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D10" t="n">
-        <v>550.5654064942401</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E10" t="n">
-        <v>402.6523129118469</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>402.6523129118469</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942401</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5227,22 +5227,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.827124689058</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1674.827124689058</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1400.508545571659</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1172.518994673642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.7264155301116</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,7 +5306,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5464,22 +5464,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1472.21450285678</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="V16" t="n">
-        <v>1120.662598458018</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W16" t="n">
-        <v>1120.662598458018</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.662598458018</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y16" t="n">
-        <v>1120.662598458018</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5516,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2628.734306600803</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,13 +5546,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1767.017141662901</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1545.250526232427</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1256.147659358071</v>
+        <v>1680.462453456021</v>
       </c>
       <c r="V19" t="n">
-        <v>1001.463171152184</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="W19" t="n">
-        <v>712.0460011152229</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="X19" t="n">
-        <v>484.0564502172056</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y19" t="n">
-        <v>263.2638710736754</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1023.336921276364</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="C22" t="n">
-        <v>854.4007383484569</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="D22" t="n">
-        <v>704.2840989361212</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1866.513008862232</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.392107041582</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.974937004621</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.985386106604</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y22" t="n">
-        <v>1204.985386106604</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089262</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277724</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811482</v>
+        <v>1557.603359811479</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483402</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542189</v>
+        <v>2637.914081542183</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390114</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919358</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320226</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008797</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426851</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>508.5026418377232</v>
+        <v>508.7128420558664</v>
       </c>
       <c r="C25" t="n">
-        <v>508.5026418377232</v>
+        <v>339.7766591279595</v>
       </c>
       <c r="D25" t="n">
-        <v>508.5026418377232</v>
+        <v>339.7766591279595</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5895482553301</v>
+        <v>339.7766591279595</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442058</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862228</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689055</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689055</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.7880996267</v>
+        <v>1385.724257814698</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208131</v>
+        <v>1131.039769608811</v>
       </c>
       <c r="W25" t="n">
-        <v>918.1406575659803</v>
+        <v>841.6225995718507</v>
       </c>
       <c r="X25" t="n">
-        <v>690.1511066679629</v>
+        <v>729.5054211993966</v>
       </c>
       <c r="Y25" t="n">
-        <v>690.1511066679629</v>
+        <v>508.7128420558664</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6364,16 +6364,16 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6552,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6598,22 +6598,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656816</v>
@@ -6841,28 +6841,28 @@
         <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,7 +6871,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,16 +7023,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,25 +7196,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,19 +7360,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,7 +7497,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
         <v>1896.176478190825</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7734,19 +7734,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>401.5033668799356</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476826</v>
+        <v>344.7025836476912</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>21.21534578336878</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>256.4127140204379</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>185.7292397877689</v>
       </c>
     </row>
     <row r="3">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>14.94760501036586</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>18.96245366221362</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>209.2755498368809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,22 +23938,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>2.335964134057093</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>232.6385849595858</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.472068662135</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>109.4579505213842</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>206.3696740203065</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>114.7136488003075</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89266.66910111639</v>
+        <v>89266.66910111636</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,19 +26320,19 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
+        <v>99270.44672174579</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99270.44672174576</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99270.4467217458</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99270.44672174576</v>
+      </c>
+      <c r="I2" t="n">
         <v>99270.44672174582</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99270.44672174579</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99270.44672174582</v>
-      </c>
-      <c r="H2" t="n">
-        <v>99270.44672174577</v>
-      </c>
-      <c r="I2" t="n">
-        <v>99270.44672174579</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330354</v>
@@ -26341,10 +26341,10 @@
         <v>102630.2212330356</v>
       </c>
       <c r="L2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="M2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="M2" t="n">
-        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>395954.8515672228</v>
+        <v>395954.8515672243</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="G4" t="n">
         <v>21619.60799709185</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709196</v>
       </c>
       <c r="J4" t="n">
-        <v>12448.50789975162</v>
+        <v>12448.5078997516</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.5078997516</v>
+        <v>12448.50789975159</v>
       </c>
       <c r="L4" t="n">
         <v>12448.50789975159</v>
       </c>
       <c r="M4" t="n">
+        <v>12448.5078997516</v>
+      </c>
+      <c r="N4" t="n">
         <v>12448.50789975159</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>12448.5078997516</v>
       </c>
-      <c r="O4" t="n">
-        <v>12448.50789975161</v>
-      </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>12448.5078997516</v>
       </c>
     </row>
     <row r="5">
@@ -26488,7 +26488,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-714747.0800129602</v>
+        <v>-715014.3510555986</v>
       </c>
       <c r="C6" t="n">
         <v>-172435.4532228038</v>
@@ -26528,40 +26528,40 @@
         <v>-172435.4532228038</v>
       </c>
       <c r="E6" t="n">
-        <v>-746110.0935224665</v>
+        <v>-746177.2890126923</v>
       </c>
       <c r="F6" t="n">
-        <v>-18732.67952905975</v>
+        <v>-18799.87501928554</v>
       </c>
       <c r="G6" t="n">
-        <v>-18732.67952905969</v>
+        <v>-18799.8750192855</v>
       </c>
       <c r="H6" t="n">
-        <v>-18732.67952905975</v>
+        <v>-18799.87501928556</v>
       </c>
       <c r="I6" t="n">
-        <v>-18732.67952905974</v>
+        <v>-18799.87501928437</v>
       </c>
       <c r="J6" t="n">
-        <v>-408937.2540878544</v>
+        <v>-408937.2540878559</v>
       </c>
       <c r="K6" t="n">
-        <v>-12982.40252063141</v>
+        <v>-12982.40252063144</v>
       </c>
       <c r="L6" t="n">
-        <v>-12982.4025206315</v>
+        <v>-12982.40252063156</v>
       </c>
       <c r="M6" t="n">
-        <v>-142624.7173595764</v>
+        <v>-142624.7173595763</v>
       </c>
       <c r="N6" t="n">
-        <v>-12982.4025206316</v>
+        <v>-12982.40252063159</v>
       </c>
       <c r="O6" t="n">
-        <v>-32410.12051426325</v>
+        <v>-32410.12051426331</v>
       </c>
       <c r="P6" t="n">
-        <v>-12982.4025206315</v>
+        <v>-12982.40252063156</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203972</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.832609982931131e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>278.198799748375</v>
+        <v>278.198799748377</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>40.71651174258122</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>200.5086988682847</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>138.1760596198529</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>166.2659349629915</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>62.1612403259337</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>145.647637080857</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>211.747513639113</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>259.1499801833011</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.3435739803691</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>92.49862951885085</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>27.44263568286735</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>158.4240343011537</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681592</v>
       </c>
       <c r="H23" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844661</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974797</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623184</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574983</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095012</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099048</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746404</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781683</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563565</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806937</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345272</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752245</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353151</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233466</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837975</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970242</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002921</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987482</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238318</v>
+        <v>43.5396634623831</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898485</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174201</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.724773788311</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085997</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R25" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712203</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553031</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112283</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33272,10 +33272,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,10 +34217,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>953.8052022928471</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407858</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265643</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923311</v>
       </c>
       <c r="M23" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302256</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129103</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359093</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908535</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636235</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152068</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597679</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609562</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013283</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004642</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525798</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859618</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127267</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306603</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443192</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675396</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789371</v>
+        <v>78.3942385378934</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36920,10 +36920,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
